--- a/plm-database.xlsx
+++ b/plm-database.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOM-001" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOM-002" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +35,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001a4d2e"/>
         <bgColor rgb="001a4d2e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0f0f0"/>
+        <bgColor rgb="00f0f0f0"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -76,7 +81,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +461,11 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
@@ -470,6 +478,7 @@
     <col width="18" customWidth="1" min="18" max="18"/>
     <col width="18" customWidth="1" min="19" max="19"/>
     <col width="18" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,85 +499,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>REVISION</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>UoM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MANUFACTURER_1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MANUFACTURER_CODE_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MANUFACTURER_2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MANUFACTURER_CODE_2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_CODE_1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_COST_1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_CODE_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_COST_2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_CODE_3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>SUPPLIER_COST_3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>COST</t>
         </is>
@@ -587,90 +606,100 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>GB001</t>
+          <t>GB0001</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Resistor 100K Ohm 1/4W</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>RC0805FR-07100KL</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>Vishay</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>CRCW0805100KFKEA</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>Mouser</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>603-RC0805FR-07100KL</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>Digikey</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>311-100KCRCT-ND</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Arrow</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>71-CRCW0805-100K-E3</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
@@ -689,90 +718,100 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>GB002</t>
+          <t>GB0002</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Capacitor 10uF 25V Ceramic</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Murata</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>GRM21BR61E106KA73L</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>CL21A106KAYNNNE</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>Mouser</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>81-GRM21BR61E106KA3L</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>Digikey</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>490-3886-1-ND</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>LCSC</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>C15850</t>
         </is>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="U3" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
@@ -791,72 +830,162 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>GB003</t>
+          <t>GB0003</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Screw M3x10mm Stainless Steel</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>92005A120</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>McMaster</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>92005A120</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Fastenal</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>11282765</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>RES-100K</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>GB0004</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Resistor 100K Ohm 1/4W (old revision)</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Yageo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>RC0805FR-07100KL-OLD</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>603-RC0805FR-OLD</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>0.06</t>
         </is>
       </c>
     </row>
@@ -871,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +1015,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>BOMCODE</t>
         </is>
@@ -898,7 +1027,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
@@ -910,7 +1039,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>CREATED_DATE</t>
         </is>
@@ -922,7 +1051,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
@@ -933,230 +1062,103 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>REVISION</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ALIAS</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>GBCODE</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>NOTES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>RES-100K</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>GB001</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Pull-up resistors</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CAP-10UF</t>
+          <t>RES-100K</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>GB002</t>
+          <t>GB0001</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Power supply decoupling</t>
+          <t>Pull-up resistors</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>CAP-10UF</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>GB0002</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Power supply decoupling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
           <t>SCR-M3X10</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>GB003</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GB0003</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Panel mounting screws</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>BOMCODE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>BOM-002</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Power Supply Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>CREATED_DATE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ALIAS</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>GBCODE</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>QUANTITY</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>CAP-10UF</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>GB002</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Output filtering</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>RES-100K</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>GB001</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Feedback network</t>
         </is>
       </c>
     </row>

--- a/plm-database.xlsx
+++ b/plm-database.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="BOM-001" sheetId="2" r:id="rId2"/>
     <sheet name="IC_002_G_110" sheetId="3" r:id="rId3"/>
+    <sheet name="RC_IIT_018_A_011" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3192,9 +3193,4157 @@
         <v/>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>RC_IIT_018_P_075</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>GB0044</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F42" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G42" t="str">
+        <v>BLOCKING PLATE</v>
+      </c>
+      <c r="H42" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>RC_TLR_001_P_270</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>GB0045</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F43" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G43" t="str">
+        <v>RIGHT KNEE STATOR FRAME</v>
+      </c>
+      <c r="H43" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <v/>
+      </c>
+      <c r="V43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>RBE-01211_STATOR</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>GB0046</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F44" t="str">
+        <v>COSM</v>
+      </c>
+      <c r="G44" t="str">
+        <v>KOLLMORGEN MOTOR cod. RBE-01211 STATOR</v>
+      </c>
+      <c r="H44" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>ELECTRONICOPTICALBOARD</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>GB0047</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F45" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G45" t="str">
+        <v>ELECTRONICOPTICALBOARD</v>
+      </c>
+      <c r="H45" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>S2-6--_-_I2338_B</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>GB0048</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F46" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Dowel pin Ø2.0 x 6 stainless steel A2, DIN7, ISO2338B, VSM12771, UNI1707</v>
+      </c>
+      <c r="H46" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <v/>
+      </c>
+      <c r="V46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>V1_6-5--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>GB0049</v>
+      </c>
+      <c r="D47" t="str">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F47" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G47" t="str">
+        <v>CROSS RECESSED SCREW ISO7045 M1.6X5 Z</v>
+      </c>
+      <c r="H47" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>CSD-17-100-2A-GR_B</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v>GB0050</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>RC_TLR_001_P_230</v>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v>GB0051</v>
+      </c>
+      <c r="D49" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F49" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G49" t="str">
+        <v>RBE1211 SHAFT</v>
+      </c>
+      <c r="H49" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <v/>
+      </c>
+      <c r="P49" t="str">
+        <v/>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v/>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v/>
+      </c>
+      <c r="U49" t="str">
+        <v/>
+      </c>
+      <c r="V49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>V3-6--_-_U5931_GC</v>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v>GB0052</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F50" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G50" t="str">
+        <v>HEX. SOCKET HEAD CAP SCREW ISO4762 - UNI5931 M3X6</v>
+      </c>
+      <c r="H50" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <v/>
+      </c>
+      <c r="P50" t="str">
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v/>
+      </c>
+      <c r="U50" t="str">
+        <v/>
+      </c>
+      <c r="V50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>618-5</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v>GB0053</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F51" t="str">
+        <v>BEAR</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Rad. ball bearing 1Row. 5X11X3 - SKF CODE 618/5</v>
+      </c>
+      <c r="H51" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v/>
+      </c>
+      <c r="U51" t="str">
+        <v/>
+      </c>
+      <c r="V51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>RBE-01211_ROTOR</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v>GB0054</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F52" t="str">
+        <v>MOTR</v>
+      </c>
+      <c r="G52" t="str">
+        <v>KOLLMORGEN MOTOR cod. RBE-01211 ROTOR</v>
+      </c>
+      <c r="H52" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <v/>
+      </c>
+      <c r="Q52" t="str">
+        <v/>
+      </c>
+      <c r="R52" t="str">
+        <v/>
+      </c>
+      <c r="S52" t="str">
+        <v/>
+      </c>
+      <c r="T52" t="str">
+        <v/>
+      </c>
+      <c r="U52" t="str">
+        <v/>
+      </c>
+      <c r="V52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>RC_TLR_001_P_231</v>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v>GB0055</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F53" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G53" t="str">
+        <v>RBE1210, RBE1211, ROTOR SPACER</v>
+      </c>
+      <c r="H53" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <v/>
+      </c>
+      <c r="P53" t="str">
+        <v/>
+      </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v/>
+      </c>
+      <c r="S53" t="str">
+        <v/>
+      </c>
+      <c r="T53" t="str">
+        <v/>
+      </c>
+      <c r="U53" t="str">
+        <v/>
+      </c>
+      <c r="V53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>PWB_ENCODER_OPTICAL_DISK_001</v>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v>GB0056</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F54" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G54" t="str">
+        <v>PWB ENCODER OPTICAL DISK</v>
+      </c>
+      <c r="H54" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <v/>
+      </c>
+      <c r="P54" t="str">
+        <v/>
+      </c>
+      <c r="Q54" t="str">
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <v/>
+      </c>
+      <c r="S54" t="str">
+        <v/>
+      </c>
+      <c r="T54" t="str">
+        <v/>
+      </c>
+      <c r="U54" t="str">
+        <v/>
+      </c>
+      <c r="V54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>618-7</v>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v>GB0057</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F55" t="str">
+        <v>BEAR</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Rad. ball bearing 1Row. 7X14X3.5 - SKF CODE 618/7</v>
+      </c>
+      <c r="H55" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+      <c r="N55" t="str">
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
+      <c r="P55" t="str">
+        <v/>
+      </c>
+      <c r="Q55" t="str">
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <v/>
+      </c>
+      <c r="S55" t="str">
+        <v/>
+      </c>
+      <c r="T55" t="str">
+        <v/>
+      </c>
+      <c r="U55" t="str">
+        <v/>
+      </c>
+      <c r="V55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>RC_USAL_001_P_177</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v>GB0058</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F56" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G56" t="str">
+        <v>RBE1211 SHAFT LOCKING RING</v>
+      </c>
+      <c r="H56" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <v/>
+      </c>
+      <c r="P56" t="str">
+        <v/>
+      </c>
+      <c r="Q56" t="str">
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <v/>
+      </c>
+      <c r="S56" t="str">
+        <v/>
+      </c>
+      <c r="T56" t="str">
+        <v/>
+      </c>
+      <c r="U56" t="str">
+        <v/>
+      </c>
+      <c r="V56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>V3-8--_-_U5933_C</v>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v>GB0059</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F57" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G57" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M3X8</v>
+      </c>
+      <c r="H57" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <v/>
+      </c>
+      <c r="P57" t="str">
+        <v/>
+      </c>
+      <c r="Q57" t="str">
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <v/>
+      </c>
+      <c r="T57" t="str">
+        <v/>
+      </c>
+      <c r="U57" t="str">
+        <v/>
+      </c>
+      <c r="V57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>CSD-17-100-2A-R_C</v>
+      </c>
+      <c r="B58" t="str">
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <v>GB0060</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F58" t="str">
+        <v>COSM</v>
+      </c>
+      <c r="G58" t="str">
+        <v>HARMONIC DRIVE GEARBOX cod. CSD-17-100-2A-R FLEX SPLINE</v>
+      </c>
+      <c r="H58" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <v/>
+      </c>
+      <c r="Q58" t="str">
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <v/>
+      </c>
+      <c r="T58" t="str">
+        <v/>
+      </c>
+      <c r="U58" t="str">
+        <v/>
+      </c>
+      <c r="V58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>RC_IIT_001_P_307</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v>GB0061</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F59" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G59" t="str">
+        <v>ROTATION MOTOR OUTPUT SHAFT</v>
+      </c>
+      <c r="H59" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <v/>
+      </c>
+      <c r="P59" t="str">
+        <v/>
+      </c>
+      <c r="Q59" t="str">
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <v/>
+      </c>
+      <c r="T59" t="str">
+        <v/>
+      </c>
+      <c r="U59" t="str">
+        <v/>
+      </c>
+      <c r="V59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>V4-6--_-_U5931_GC</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v>GB0062</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F60" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G60" t="str">
+        <v>HEX. SOCKET HEAD CAP SCREW ISO4762 - UNI5931 M4X6</v>
+      </c>
+      <c r="H60" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <v/>
+      </c>
+      <c r="U60" t="str">
+        <v/>
+      </c>
+      <c r="V60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>CSD-17-100-2A-GR_A</v>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <v>GB0063</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <v/>
+      </c>
+      <c r="N61" t="str">
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <v/>
+      </c>
+      <c r="P61" t="str">
+        <v/>
+      </c>
+      <c r="Q61" t="str">
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <v/>
+      </c>
+      <c r="S61" t="str">
+        <v/>
+      </c>
+      <c r="T61" t="str">
+        <v/>
+      </c>
+      <c r="U61" t="str">
+        <v/>
+      </c>
+      <c r="V61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>RC_TLR_001_P_232</v>
+      </c>
+      <c r="B62" t="str">
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <v>GB0064</v>
+      </c>
+      <c r="D62" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F62" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G62" t="str">
+        <v>RBE1211   HARMONIC SUPPORT RING</v>
+      </c>
+      <c r="H62" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <v/>
+      </c>
+      <c r="Q62" t="str">
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <v/>
+      </c>
+      <c r="S62" t="str">
+        <v/>
+      </c>
+      <c r="T62" t="str">
+        <v/>
+      </c>
+      <c r="U62" t="str">
+        <v/>
+      </c>
+      <c r="V62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>KAA15XL0</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <v>GB0065</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F63" t="str">
+        <v>BEAR</v>
+      </c>
+      <c r="G63" t="str">
+        <v>KAYDON BEARING cod. KAA-15-XLO</v>
+      </c>
+      <c r="H63" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <v/>
+      </c>
+      <c r="S63" t="str">
+        <v/>
+      </c>
+      <c r="T63" t="str">
+        <v/>
+      </c>
+      <c r="U63" t="str">
+        <v/>
+      </c>
+      <c r="V63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>RC_TLR_001_P_272</v>
+      </c>
+      <c r="B64" t="str">
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <v>GB0066</v>
+      </c>
+      <c r="D64" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F64" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G64" t="str">
+        <v>KNEE MOTOR TOP PLATE</v>
+      </c>
+      <c r="H64" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <v/>
+      </c>
+      <c r="P64" t="str">
+        <v/>
+      </c>
+      <c r="Q64" t="str">
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <v/>
+      </c>
+      <c r="S64" t="str">
+        <v/>
+      </c>
+      <c r="T64" t="str">
+        <v/>
+      </c>
+      <c r="U64" t="str">
+        <v/>
+      </c>
+      <c r="V64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>V3-25--_-_U5933_C</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v>GB0067</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F65" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G65" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M3X25</v>
+      </c>
+      <c r="H65" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <v/>
+      </c>
+      <c r="P65" t="str">
+        <v/>
+      </c>
+      <c r="Q65" t="str">
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <v/>
+      </c>
+      <c r="S65" t="str">
+        <v/>
+      </c>
+      <c r="T65" t="str">
+        <v/>
+      </c>
+      <c r="U65" t="str">
+        <v/>
+      </c>
+      <c r="V65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>61803</v>
+      </c>
+      <c r="B66" t="str">
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <v>GB0068</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F66" t="str">
+        <v>BEAR</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Rad. ball bearing 1Row. 17X26X5 - SKF CODE 61803</v>
+      </c>
+      <c r="H66" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v/>
+      </c>
+      <c r="L66" t="str">
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <v/>
+      </c>
+      <c r="P66" t="str">
+        <v/>
+      </c>
+      <c r="Q66" t="str">
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <v/>
+      </c>
+      <c r="S66" t="str">
+        <v/>
+      </c>
+      <c r="T66" t="str">
+        <v/>
+      </c>
+      <c r="U66" t="str">
+        <v/>
+      </c>
+      <c r="V66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>RC_IIT_018_P_008</v>
+      </c>
+      <c r="B67" t="str">
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <v>GB0069</v>
+      </c>
+      <c r="D67" t="str">
+        <v>A2</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F67" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G67" t="str">
+        <v>SEA joint motor output</v>
+      </c>
+      <c r="H67" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <v/>
+      </c>
+      <c r="P67" t="str">
+        <v/>
+      </c>
+      <c r="Q67" t="str">
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <v/>
+      </c>
+      <c r="S67" t="str">
+        <v/>
+      </c>
+      <c r="T67" t="str">
+        <v/>
+      </c>
+      <c r="U67" t="str">
+        <v/>
+      </c>
+      <c r="V67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>RC_IIT_018_P_025</v>
+      </c>
+      <c r="B68" t="str">
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <v>GB0070</v>
+      </c>
+      <c r="D68" t="str">
+        <v>A3</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F68" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G68" t="str">
+        <v>SEA joint output</v>
+      </c>
+      <c r="H68" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <v/>
+      </c>
+      <c r="P68" t="str">
+        <v/>
+      </c>
+      <c r="Q68" t="str">
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <v/>
+      </c>
+      <c r="S68" t="str">
+        <v/>
+      </c>
+      <c r="T68" t="str">
+        <v/>
+      </c>
+      <c r="U68" t="str">
+        <v/>
+      </c>
+      <c r="V68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>61801</v>
+      </c>
+      <c r="B69" t="str">
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <v>GB0071</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F69" t="str">
+        <v>BEAR</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Rad. ball bearing 1Row. 12X21X5 - SKF CODE 61801</v>
+      </c>
+      <c r="H69" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <v/>
+      </c>
+      <c r="Q69" t="str">
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <v/>
+      </c>
+      <c r="S69" t="str">
+        <v/>
+      </c>
+      <c r="T69" t="str">
+        <v/>
+      </c>
+      <c r="U69" t="str">
+        <v/>
+      </c>
+      <c r="V69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>RC_IIT_018_P_062</v>
+      </c>
+      <c r="B70" t="str">
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <v>GB0072</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F70" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G70" t="str">
+        <v>SEA joint elastic element</v>
+      </c>
+      <c r="H70" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v/>
+      </c>
+      <c r="L70" t="str">
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <v/>
+      </c>
+      <c r="P70" t="str">
+        <v/>
+      </c>
+      <c r="Q70" t="str">
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <v/>
+      </c>
+      <c r="S70" t="str">
+        <v/>
+      </c>
+      <c r="T70" t="str">
+        <v/>
+      </c>
+      <c r="U70" t="str">
+        <v/>
+      </c>
+      <c r="V70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>RC_IIT_018_P_079</v>
+      </c>
+      <c r="B71" t="str">
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <v>GB0073</v>
+      </c>
+      <c r="D71" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F71" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G71" t="str">
+        <v>SEA joint rigid connection</v>
+      </c>
+      <c r="H71" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
+      <c r="P71" t="str">
+        <v/>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <v/>
+      </c>
+      <c r="T71" t="str">
+        <v/>
+      </c>
+      <c r="U71" t="str">
+        <v/>
+      </c>
+      <c r="V71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>RC_IIT_018_P_027</v>
+      </c>
+      <c r="B72" t="str">
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <v>GB0074</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F72" t="str">
+        <v>PLAS</v>
+      </c>
+      <c r="G72" t="str">
+        <v>NEI2 board support</v>
+      </c>
+      <c r="H72" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <v/>
+      </c>
+      <c r="Q72" t="str">
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <v/>
+      </c>
+      <c r="T72" t="str">
+        <v/>
+      </c>
+      <c r="U72" t="str">
+        <v/>
+      </c>
+      <c r="V72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>NEI2_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B73" t="str">
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <v>GB0075</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F73" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G73" t="str">
+        <v>NEI2 electronic board</v>
+      </c>
+      <c r="H73" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
+      <c r="P73" t="str">
+        <v/>
+      </c>
+      <c r="Q73" t="str">
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <v/>
+      </c>
+      <c r="T73" t="str">
+        <v/>
+      </c>
+      <c r="U73" t="str">
+        <v/>
+      </c>
+      <c r="V73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>V1_6-3--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <v>GB0076</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F74" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G74" t="str">
+        <v>CROSS RECESSED SCREW ISO7045 M1.6X3 Z</v>
+      </c>
+      <c r="H74" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <v/>
+      </c>
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <v/>
+      </c>
+      <c r="S74" t="str">
+        <v/>
+      </c>
+      <c r="T74" t="str">
+        <v/>
+      </c>
+      <c r="U74" t="str">
+        <v/>
+      </c>
+      <c r="V74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>V1_6-6--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B75" t="str">
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <v>GB0077</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F75" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G75" t="str">
+        <v>CROSS RECESSED SCREW ISO7045 M1.6X6 Z</v>
+      </c>
+      <c r="H75" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v/>
+      </c>
+      <c r="S75" t="str">
+        <v/>
+      </c>
+      <c r="T75" t="str">
+        <v/>
+      </c>
+      <c r="U75" t="str">
+        <v/>
+      </c>
+      <c r="V75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>RC_TLR_001_P_274</v>
+      </c>
+      <c r="B76" t="str">
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <v>GB0078</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F76" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G76" t="str">
+        <v>KNEE-CALF CONNECTION OUTSIDE PLATE</v>
+      </c>
+      <c r="H76" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v/>
+      </c>
+      <c r="S76" t="str">
+        <v/>
+      </c>
+      <c r="T76" t="str">
+        <v/>
+      </c>
+      <c r="U76" t="str">
+        <v/>
+      </c>
+      <c r="V76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>RC_TLR_001_P_276</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v>GB0079</v>
+      </c>
+      <c r="D77" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F77" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G77" t="str">
+        <v>KNEE JOINT OUTSIDE FIXATION PLATE</v>
+      </c>
+      <c r="H77" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <v/>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v/>
+      </c>
+      <c r="S77" t="str">
+        <v/>
+      </c>
+      <c r="T77" t="str">
+        <v/>
+      </c>
+      <c r="U77" t="str">
+        <v/>
+      </c>
+      <c r="V77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>V4-12--_-_U5933_C</v>
+      </c>
+      <c r="B78" t="str">
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <v>GB0080</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F78" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G78" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M4X12</v>
+      </c>
+      <c r="H78" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <v/>
+      </c>
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
+        <v/>
+      </c>
+      <c r="S78" t="str">
+        <v/>
+      </c>
+      <c r="T78" t="str">
+        <v/>
+      </c>
+      <c r="U78" t="str">
+        <v/>
+      </c>
+      <c r="V78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>RC_USAL_001_P_208</v>
+      </c>
+      <c r="B79" t="str">
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <v>GB0081</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F79" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G79" t="str">
+        <v>BEARING LOCK AND MAGNET FIXATION</v>
+      </c>
+      <c r="H79" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <v/>
+      </c>
+      <c r="P79" t="str">
+        <v/>
+      </c>
+      <c r="Q79" t="str">
+        <v/>
+      </c>
+      <c r="R79" t="str">
+        <v/>
+      </c>
+      <c r="S79" t="str">
+        <v/>
+      </c>
+      <c r="T79" t="str">
+        <v/>
+      </c>
+      <c r="U79" t="str">
+        <v/>
+      </c>
+      <c r="V79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>V3-6--_-_U5933_C</v>
+      </c>
+      <c r="B80" t="str">
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <v>GB0082</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F80" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G80" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M3X6</v>
+      </c>
+      <c r="H80" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <v/>
+      </c>
+      <c r="R80" t="str">
+        <v/>
+      </c>
+      <c r="S80" t="str">
+        <v/>
+      </c>
+      <c r="T80" t="str">
+        <v/>
+      </c>
+      <c r="U80" t="str">
+        <v/>
+      </c>
+      <c r="V80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>MAGNET6MM</v>
+      </c>
+      <c r="B81" t="str">
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <v>GB0083</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F81" t="str">
+        <v>COMM</v>
+      </c>
+      <c r="G81" t="str">
+        <v>ENCODER MAGNET</v>
+      </c>
+      <c r="H81" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <v/>
+      </c>
+      <c r="N81" t="str">
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <v/>
+      </c>
+      <c r="P81" t="str">
+        <v/>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v/>
+      </c>
+      <c r="S81" t="str">
+        <v/>
+      </c>
+      <c r="T81" t="str">
+        <v/>
+      </c>
+      <c r="U81" t="str">
+        <v/>
+      </c>
+      <c r="V81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>RC_USAL_001_P_209</v>
+      </c>
+      <c r="B82" t="str">
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <v>GB0084</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F82" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G82" t="str">
+        <v>ENCODER BOARD FIXATION</v>
+      </c>
+      <c r="H82" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v/>
+      </c>
+      <c r="S82" t="str">
+        <v/>
+      </c>
+      <c r="T82" t="str">
+        <v/>
+      </c>
+      <c r="U82" t="str">
+        <v/>
+      </c>
+      <c r="V82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>V3-10--_-_U5933_C</v>
+      </c>
+      <c r="B83" t="str">
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <v>GB0085</v>
+      </c>
+      <c r="D83" t="str">
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F83" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G83" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M3X10</v>
+      </c>
+      <c r="H83" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v/>
+      </c>
+      <c r="S83" t="str">
+        <v/>
+      </c>
+      <c r="T83" t="str">
+        <v/>
+      </c>
+      <c r="U83" t="str">
+        <v/>
+      </c>
+      <c r="V83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>AEA</v>
+      </c>
+      <c r="B84" t="str">
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <v>GB0086</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F84" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G84" t="str">
+        <v>PCB FOR PROGRAMMABLE MAGNETIC ROTARY ENCODER</v>
+      </c>
+      <c r="H84" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v/>
+      </c>
+      <c r="S84" t="str">
+        <v/>
+      </c>
+      <c r="T84" t="str">
+        <v/>
+      </c>
+      <c r="U84" t="str">
+        <v/>
+      </c>
+      <c r="V84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>V1-3--_-_D84A_C</v>
+      </c>
+      <c r="B85" t="str">
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <v>GB0087</v>
+      </c>
+      <c r="D85" t="str">
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <v/>
+      </c>
+      <c r="T85" t="str">
+        <v/>
+      </c>
+      <c r="U85" t="str">
+        <v/>
+      </c>
+      <c r="V85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>S4-10--_-_I2338_B</v>
+      </c>
+      <c r="B86" t="str">
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <v>GB0088</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F86" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Dowel pin Ø4.0 x 10 stainless steel A2, DIN7, ISO2338B, VSM12771, UNI1707</v>
+      </c>
+      <c r="H86" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <v/>
+      </c>
+      <c r="P86" t="str">
+        <v/>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v/>
+      </c>
+      <c r="S86" t="str">
+        <v/>
+      </c>
+      <c r="T86" t="str">
+        <v/>
+      </c>
+      <c r="U86" t="str">
+        <v/>
+      </c>
+      <c r="V86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>V3-8--_-_U5931_GC</v>
+      </c>
+      <c r="B87" t="str">
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <v>GB0089</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F87" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G87" t="str">
+        <v>HEX. SOCKET HEAD CAP SCREW ISO4762 - UNI5931 M3X8</v>
+      </c>
+      <c r="H87" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <v/>
+      </c>
+      <c r="P87" t="str">
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v/>
+      </c>
+      <c r="S87" t="str">
+        <v/>
+      </c>
+      <c r="T87" t="str">
+        <v/>
+      </c>
+      <c r="U87" t="str">
+        <v/>
+      </c>
+      <c r="V87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>RC_IIT_018_P_036</v>
+      </c>
+      <c r="B88" t="str">
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <v>GB0090</v>
+      </c>
+      <c r="D88" t="str">
+        <v>A2</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F88" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Threaded shaft lock</v>
+      </c>
+      <c r="H88" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <v/>
+      </c>
+      <c r="P88" t="str">
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <v/>
+      </c>
+      <c r="R88" t="str">
+        <v/>
+      </c>
+      <c r="S88" t="str">
+        <v/>
+      </c>
+      <c r="T88" t="str">
+        <v/>
+      </c>
+      <c r="U88" t="str">
+        <v/>
+      </c>
+      <c r="V88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>RC_IIT_018_P_010</v>
+      </c>
+      <c r="B89" t="str">
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <v>GB0091</v>
+      </c>
+      <c r="D89" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F89" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Bearing cap</v>
+      </c>
+      <c r="H89" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v/>
+      </c>
+      <c r="S89" t="str">
+        <v/>
+      </c>
+      <c r="T89" t="str">
+        <v/>
+      </c>
+      <c r="U89" t="str">
+        <v/>
+      </c>
+      <c r="V89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>AEA2_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B90" t="str">
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <v>GB0092</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F90" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G90" t="str">
+        <v>AEA2 electronic board</v>
+      </c>
+      <c r="H90" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+      <c r="S90" t="str">
+        <v/>
+      </c>
+      <c r="T90" t="str">
+        <v/>
+      </c>
+      <c r="U90" t="str">
+        <v/>
+      </c>
+      <c r="V90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>RC_IIT_018_P_076</v>
+      </c>
+      <c r="B91" t="str">
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <v>GB0093</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F91" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G91" t="str">
+        <v>BENCH PLATE</v>
+      </c>
+      <c r="H91" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <v/>
+      </c>
+      <c r="P91" t="str">
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v/>
+      </c>
+      <c r="S91" t="str">
+        <v/>
+      </c>
+      <c r="T91" t="str">
+        <v/>
+      </c>
+      <c r="U91" t="str">
+        <v/>
+      </c>
+      <c r="V91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>FTSENSOR45</v>
+      </c>
+      <c r="B92" t="str">
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <v>GB0094</v>
+      </c>
+      <c r="D92" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F92" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G92" t="str">
+        <v>FT Sensor Cell</v>
+      </c>
+      <c r="H92" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v/>
+      </c>
+      <c r="M92" t="str">
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <v/>
+      </c>
+      <c r="O92" t="str">
+        <v/>
+      </c>
+      <c r="P92" t="str">
+        <v/>
+      </c>
+      <c r="Q92" t="str">
+        <v/>
+      </c>
+      <c r="R92" t="str">
+        <v/>
+      </c>
+      <c r="S92" t="str">
+        <v/>
+      </c>
+      <c r="T92" t="str">
+        <v/>
+      </c>
+      <c r="U92" t="str">
+        <v/>
+      </c>
+      <c r="V92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>BOTTOMCOVER45</v>
+      </c>
+      <c r="B93" t="str">
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <v>GB0095</v>
+      </c>
+      <c r="D93" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F93" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G93" t="str">
+        <v>FT Sensor Bottom Cover</v>
+      </c>
+      <c r="H93" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <v/>
+      </c>
+      <c r="N93" t="str">
+        <v/>
+      </c>
+      <c r="O93" t="str">
+        <v/>
+      </c>
+      <c r="P93" t="str">
+        <v/>
+      </c>
+      <c r="Q93" t="str">
+        <v/>
+      </c>
+      <c r="R93" t="str">
+        <v/>
+      </c>
+      <c r="S93" t="str">
+        <v/>
+      </c>
+      <c r="T93" t="str">
+        <v/>
+      </c>
+      <c r="U93" t="str">
+        <v/>
+      </c>
+      <c r="V93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>STRAIN_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B94" t="str">
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <v>GB0096</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F94" t="str">
+        <v>ELTR</v>
+      </c>
+      <c r="G94" t="str">
+        <v>STRAIN electronic board</v>
+      </c>
+      <c r="H94" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <v/>
+      </c>
+      <c r="O94" t="str">
+        <v/>
+      </c>
+      <c r="P94" t="str">
+        <v/>
+      </c>
+      <c r="Q94" t="str">
+        <v/>
+      </c>
+      <c r="R94" t="str">
+        <v/>
+      </c>
+      <c r="S94" t="str">
+        <v/>
+      </c>
+      <c r="T94" t="str">
+        <v/>
+      </c>
+      <c r="U94" t="str">
+        <v/>
+      </c>
+      <c r="V94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>TOPCOVER45</v>
+      </c>
+      <c r="B95" t="str">
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <v>GB0097</v>
+      </c>
+      <c r="D95" t="str">
+        <v>A1</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F95" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G95" t="str">
+        <v>FT Sensor Top Cover</v>
+      </c>
+      <c r="H95" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <v/>
+      </c>
+      <c r="N95" t="str">
+        <v/>
+      </c>
+      <c r="O95" t="str">
+        <v/>
+      </c>
+      <c r="P95" t="str">
+        <v/>
+      </c>
+      <c r="Q95" t="str">
+        <v/>
+      </c>
+      <c r="R95" t="str">
+        <v/>
+      </c>
+      <c r="S95" t="str">
+        <v/>
+      </c>
+      <c r="T95" t="str">
+        <v/>
+      </c>
+      <c r="U95" t="str">
+        <v/>
+      </c>
+      <c r="V95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>V3-12--_-_U5933_C_HR</v>
+      </c>
+      <c r="B96" t="str">
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <v>GB0098</v>
+      </c>
+      <c r="D96" t="str">
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F96" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G96" t="str">
+        <v>SOCKET FLAT HEAD SCREW_DIN 7991 - UNI 5933  M3X12 - HIGH RESISTINCE</v>
+      </c>
+      <c r="H96" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <v/>
+      </c>
+      <c r="M96" t="str">
+        <v/>
+      </c>
+      <c r="N96" t="str">
+        <v/>
+      </c>
+      <c r="O96" t="str">
+        <v/>
+      </c>
+      <c r="P96" t="str">
+        <v/>
+      </c>
+      <c r="Q96" t="str">
+        <v/>
+      </c>
+      <c r="R96" t="str">
+        <v/>
+      </c>
+      <c r="S96" t="str">
+        <v/>
+      </c>
+      <c r="T96" t="str">
+        <v/>
+      </c>
+      <c r="U96" t="str">
+        <v/>
+      </c>
+      <c r="V96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>V3-8--_-_U5933_C_HR</v>
+      </c>
+      <c r="B97" t="str">
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <v>GB0099</v>
+      </c>
+      <c r="D97" t="str">
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F97" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G97" t="str">
+        <v>SOCKET FLAT HEAD SCREW_DIN 7991 - UNI 5933  M3X8 - HIGH RESISTAINCE</v>
+      </c>
+      <c r="H97" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v/>
+      </c>
+      <c r="M97" t="str">
+        <v/>
+      </c>
+      <c r="N97" t="str">
+        <v/>
+      </c>
+      <c r="O97" t="str">
+        <v/>
+      </c>
+      <c r="P97" t="str">
+        <v/>
+      </c>
+      <c r="Q97" t="str">
+        <v/>
+      </c>
+      <c r="R97" t="str">
+        <v/>
+      </c>
+      <c r="S97" t="str">
+        <v/>
+      </c>
+      <c r="T97" t="str">
+        <v/>
+      </c>
+      <c r="U97" t="str">
+        <v/>
+      </c>
+      <c r="V97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>V3-12--_-_U5933_C</v>
+      </c>
+      <c r="B98" t="str">
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <v>GB0100</v>
+      </c>
+      <c r="D98" t="str">
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F98" t="str">
+        <v>FAST</v>
+      </c>
+      <c r="G98" t="str">
+        <v>SOCKET FLAT HEAD SCREW  DIN 7991 - UNI 5933 M3X12</v>
+      </c>
+      <c r="H98" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <v/>
+      </c>
+      <c r="N98" t="str">
+        <v/>
+      </c>
+      <c r="O98" t="str">
+        <v/>
+      </c>
+      <c r="P98" t="str">
+        <v/>
+      </c>
+      <c r="Q98" t="str">
+        <v/>
+      </c>
+      <c r="R98" t="str">
+        <v/>
+      </c>
+      <c r="S98" t="str">
+        <v/>
+      </c>
+      <c r="T98" t="str">
+        <v/>
+      </c>
+      <c r="U98" t="str">
+        <v/>
+      </c>
+      <c r="V98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>RC_IIT_018_P_077</v>
+      </c>
+      <c r="B99" t="str">
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <v>GB0101</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F99" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G99" t="str">
+        <v>BENCH CIRCULAR PLATE</v>
+      </c>
+      <c r="H99" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <v/>
+      </c>
+      <c r="N99" t="str">
+        <v/>
+      </c>
+      <c r="O99" t="str">
+        <v/>
+      </c>
+      <c r="P99" t="str">
+        <v/>
+      </c>
+      <c r="Q99" t="str">
+        <v/>
+      </c>
+      <c r="R99" t="str">
+        <v/>
+      </c>
+      <c r="S99" t="str">
+        <v/>
+      </c>
+      <c r="T99" t="str">
+        <v/>
+      </c>
+      <c r="U99" t="str">
+        <v/>
+      </c>
+      <c r="V99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>RC_IIT_018_P_078</v>
+      </c>
+      <c r="B100" t="str">
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <v>GB0102</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F100" t="str">
+        <v>CUST</v>
+      </c>
+      <c r="G100" t="str">
+        <v>LEVER</v>
+      </c>
+      <c r="H100" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <v/>
+      </c>
+      <c r="M100" t="str">
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <v/>
+      </c>
+      <c r="O100" t="str">
+        <v/>
+      </c>
+      <c r="P100" t="str">
+        <v/>
+      </c>
+      <c r="Q100" t="str">
+        <v/>
+      </c>
+      <c r="R100" t="str">
+        <v/>
+      </c>
+      <c r="S100" t="str">
+        <v/>
+      </c>
+      <c r="T100" t="str">
+        <v/>
+      </c>
+      <c r="U100" t="str">
+        <v/>
+      </c>
+      <c r="V100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>MISUMI_TMEPL_L500</v>
+      </c>
+      <c r="B101" t="str">
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <v>GB0103</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F101" t="str">
+        <v>COMM</v>
+      </c>
+      <c r="G101" t="str">
+        <v>MISUMI SCALE TAPE ZERO LEFT END L=500 mm</v>
+      </c>
+      <c r="H101" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <v/>
+      </c>
+      <c r="O101" t="str">
+        <v/>
+      </c>
+      <c r="P101" t="str">
+        <v/>
+      </c>
+      <c r="Q101" t="str">
+        <v/>
+      </c>
+      <c r="R101" t="str">
+        <v/>
+      </c>
+      <c r="S101" t="str">
+        <v/>
+      </c>
+      <c r="T101" t="str">
+        <v/>
+      </c>
+      <c r="U101" t="str">
+        <v/>
+      </c>
+      <c r="V101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>RC_IIT_018_A_011_P0010001</v>
+      </c>
+      <c r="B102" t="str">
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <v>GB0104</v>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F102" t="str">
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v>pcs</v>
+      </c>
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <v/>
+      </c>
+      <c r="M102" t="str">
+        <v/>
+      </c>
+      <c r="N102" t="str">
+        <v/>
+      </c>
+      <c r="O102" t="str">
+        <v/>
+      </c>
+      <c r="P102" t="str">
+        <v/>
+      </c>
+      <c r="Q102" t="str">
+        <v/>
+      </c>
+      <c r="R102" t="str">
+        <v/>
+      </c>
+      <c r="S102" t="str">
+        <v/>
+      </c>
+      <c r="T102" t="str">
+        <v/>
+      </c>
+      <c r="U102" t="str">
+        <v/>
+      </c>
+      <c r="V102" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V102"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3879,4 +8028,954 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D43"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>BOMCODE</v>
+      </c>
+      <c r="B1" t="str">
+        <v>RC_IIT_018_A_011</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>DESCRIPTION</v>
+      </c>
+      <c r="B2" t="str">
+        <v>KNEE TEST BENCH</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CREATED_DATE</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2025-11-25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>STATUS</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>REVISION</v>
+      </c>
+      <c r="B5" t="str">
+        <v>A0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ALIAS</v>
+      </c>
+      <c r="B7" t="str">
+        <v>GBCODE</v>
+      </c>
+      <c r="C7" t="str">
+        <v>QUANTITY</v>
+      </c>
+      <c r="D7" t="str">
+        <v>NOTES</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>RC_IIT_018_P_075</v>
+      </c>
+      <c r="B8" t="str">
+        <v>GB0044</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>RC_TLR_001_P_270</v>
+      </c>
+      <c r="B9" t="str">
+        <v>GB0045</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>RBE-01211_STATOR</v>
+      </c>
+      <c r="B10" t="str">
+        <v>GB0046</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ELECTRONICOPTICALBOARD</v>
+      </c>
+      <c r="B11" t="str">
+        <v>GB0047</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>S2-6--_-_I2338_B</v>
+      </c>
+      <c r="B12" t="str">
+        <v>GB0048</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>V1_6-5--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B13" t="str">
+        <v>GB0049</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>CSD-17-100-2A-GR_B</v>
+      </c>
+      <c r="B14" t="str">
+        <v>GB0050</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>RC_TLR_001_P_230</v>
+      </c>
+      <c r="B15" t="str">
+        <v>GB0051</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>V3-6--_-_U5931_GC</v>
+      </c>
+      <c r="B16" t="str">
+        <v>GB0052</v>
+      </c>
+      <c r="C16" t="str">
+        <v>8</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>618-5</v>
+      </c>
+      <c r="B17" t="str">
+        <v>GB0053</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>RBE-01211_ROTOR</v>
+      </c>
+      <c r="B18" t="str">
+        <v>GB0054</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>RC_TLR_001_P_231</v>
+      </c>
+      <c r="B19" t="str">
+        <v>GB0055</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>PWB_ENCODER_OPTICAL_DISK_001</v>
+      </c>
+      <c r="B20" t="str">
+        <v>GB0056</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>618-7</v>
+      </c>
+      <c r="B21" t="str">
+        <v>GB0057</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>RC_USAL_001_P_177</v>
+      </c>
+      <c r="B22" t="str">
+        <v>GB0058</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>V3-8--_-_U5933_C</v>
+      </c>
+      <c r="B23" t="str">
+        <v>GB0059</v>
+      </c>
+      <c r="C23" t="str">
+        <v>9</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>CSD-17-100-2A-R_C</v>
+      </c>
+      <c r="B24" t="str">
+        <v>GB0060</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>RC_IIT_001_P_307</v>
+      </c>
+      <c r="B25" t="str">
+        <v>GB0061</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>V4-6--_-_U5931_GC</v>
+      </c>
+      <c r="B26" t="str">
+        <v>GB0062</v>
+      </c>
+      <c r="C26" t="str">
+        <v>8</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>CSD-17-100-2A-GR_A</v>
+      </c>
+      <c r="B27" t="str">
+        <v>GB0063</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>RC_TLR_001_P_232</v>
+      </c>
+      <c r="B28" t="str">
+        <v>GB0064</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>KAA15XL0</v>
+      </c>
+      <c r="B29" t="str">
+        <v>GB0065</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>RC_TLR_001_P_272</v>
+      </c>
+      <c r="B30" t="str">
+        <v>GB0066</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>V3-25--_-_U5933_C</v>
+      </c>
+      <c r="B31" t="str">
+        <v>GB0067</v>
+      </c>
+      <c r="C31" t="str">
+        <v>8</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>61803</v>
+      </c>
+      <c r="B32" t="str">
+        <v>GB0068</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>RC_IIT_018_P_008</v>
+      </c>
+      <c r="B33" t="str">
+        <v>GB0069</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>RC_IIT_018_P_025</v>
+      </c>
+      <c r="B34" t="str">
+        <v>GB0070</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>61801</v>
+      </c>
+      <c r="B35" t="str">
+        <v>GB0071</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>RC_IIT_018_P_062</v>
+      </c>
+      <c r="B36" t="str">
+        <v>GB0072</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>RC_IIT_018_P_079</v>
+      </c>
+      <c r="B37" t="str">
+        <v>GB0073</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>RC_IIT_018_P_027</v>
+      </c>
+      <c r="B38" t="str">
+        <v>GB0074</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>NEI2_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B39" t="str">
+        <v>GB0075</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>V1_6-3--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B40" t="str">
+        <v>GB0076</v>
+      </c>
+      <c r="C40" t="str">
+        <v>6</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>D1_6--_-_I4032</v>
+      </c>
+      <c r="B41" t="str">
+        <v>GB0032</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>V1_6-6--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B42" t="str">
+        <v>GB0077</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>RC_TLR_001_P_274</v>
+      </c>
+      <c r="B43" t="str">
+        <v>GB0078</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>RC_TLR_001_P_276</v>
+      </c>
+      <c r="B44" t="str">
+        <v>GB0079</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>V4-12--_-_U5933_C</v>
+      </c>
+      <c r="B45" t="str">
+        <v>GB0080</v>
+      </c>
+      <c r="C45" t="str">
+        <v>10</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>RC_USAL_001_P_208</v>
+      </c>
+      <c r="B46" t="str">
+        <v>GB0081</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>V3-6--_-_U5933_C</v>
+      </c>
+      <c r="B47" t="str">
+        <v>GB0082</v>
+      </c>
+      <c r="C47" t="str">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>MAGNET6MM</v>
+      </c>
+      <c r="B48" t="str">
+        <v>GB0083</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>RC_USAL_001_P_209</v>
+      </c>
+      <c r="B49" t="str">
+        <v>GB0084</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>V3-10--_-_U5933_C</v>
+      </c>
+      <c r="B50" t="str">
+        <v>GB0085</v>
+      </c>
+      <c r="C50" t="str">
+        <v>6</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>AEA</v>
+      </c>
+      <c r="B51" t="str">
+        <v>GB0086</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>V1-3--_-_D84A_C</v>
+      </c>
+      <c r="B52" t="str">
+        <v>GB0087</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>S4-10--_-_I2338_B</v>
+      </c>
+      <c r="B53" t="str">
+        <v>GB0088</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>V3-8--_-_U5931_GC</v>
+      </c>
+      <c r="B54" t="str">
+        <v>GB0089</v>
+      </c>
+      <c r="C54" t="str">
+        <v>6</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>RC_IIT_018_P_036</v>
+      </c>
+      <c r="B55" t="str">
+        <v>GB0090</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>RC_IIT_018_P_010</v>
+      </c>
+      <c r="B56" t="str">
+        <v>GB0091</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>AEA2_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B57" t="str">
+        <v>GB0092</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>RC_IIT_018_P_076</v>
+      </c>
+      <c r="B58" t="str">
+        <v>GB0093</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>FTSENSOR45</v>
+      </c>
+      <c r="B59" t="str">
+        <v>GB0094</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>BOTTOMCOVER45</v>
+      </c>
+      <c r="B60" t="str">
+        <v>GB0095</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>STRAIN_ELECTRONIC_BOARD</v>
+      </c>
+      <c r="B61" t="str">
+        <v>GB0096</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>V1_6-4--_-_ISO7045_CZ</v>
+      </c>
+      <c r="B62" t="str">
+        <v>GB0026</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>TOPCOVER45</v>
+      </c>
+      <c r="B63" t="str">
+        <v>GB0097</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>V3-12--_-_U5933_C_HR</v>
+      </c>
+      <c r="B64" t="str">
+        <v>GB0098</v>
+      </c>
+      <c r="C64" t="str">
+        <v>6</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>V3-8--_-_U5933_C_HR</v>
+      </c>
+      <c r="B65" t="str">
+        <v>GB0099</v>
+      </c>
+      <c r="C65" t="str">
+        <v>6</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>V3-12--_-_U5933_C</v>
+      </c>
+      <c r="B66" t="str">
+        <v>GB0100</v>
+      </c>
+      <c r="C66" t="str">
+        <v>18</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>RC_IIT_018_P_077</v>
+      </c>
+      <c r="B67" t="str">
+        <v>GB0101</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>RC_IIT_018_P_078</v>
+      </c>
+      <c r="B68" t="str">
+        <v>GB0102</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>MISUMI_TMEPL_L500</v>
+      </c>
+      <c r="B69" t="str">
+        <v>GB0103</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>RC_IIT_018_A_011_P0010001</v>
+      </c>
+      <c r="B70" t="str">
+        <v>GB0104</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1</v>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D70"/>
+  </ignoredErrors>
+</worksheet>
 </file>